--- a/Csharp_ExcelTools/test1.xlsx
+++ b/Csharp_ExcelTools/test1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t xml:space="preserve">名稱</t>
   </si>
@@ -167,35 +167,6 @@
   </si>
   <si>
     <t xml:space="preserve">joe5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">台北市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">號街</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">jack1</t>
@@ -316,8 +287,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
@@ -325,15 +297,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -358,114 +330,115 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>123456</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>44626</v>
+      <c r="E2" s="3" t="n">
+        <v>44626.545150463</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>123457</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>44627</v>
+      <c r="E3" s="3" t="n">
+        <v>44627.545150463</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="1" t="n">
         <v>123458</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>44628</v>
+      <c r="E4" s="3" t="n">
+        <v>44628.545150463</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="1" t="n">
         <v>123459</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>44629</v>
+      <c r="E5" s="3" t="n">
+        <v>44629.545150463</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>123450</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="B6" s="1" t="n">
+        <v>123460</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>44630</v>
+      <c r="E6" s="3" t="n">
+        <v>44630.545150463</v>
       </c>
     </row>
   </sheetData>
@@ -490,107 +463,107 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>345671</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>345671</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="n">
+        <v>345672</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>345672</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>44622</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>44622</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="n">
+        <v>345673</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>345673</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>44623</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="n">
+        <v>345674</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>345674</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>44624</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>44624</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="n">
+        <v>345675</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>345675</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <v>44625</v>
       </c>
     </row>

--- a/Csharp_ExcelTools/test1.xlsx
+++ b/Csharp_ExcelTools/test1.xlsx
@@ -330,10 +330,10 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.69"/>
@@ -463,7 +463,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/Csharp_ExcelTools/test1.xlsx
+++ b/Csharp_ExcelTools/test1.xlsx
@@ -330,10 +330,10 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.69"/>
@@ -463,7 +463,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/Csharp_ExcelTools/test1.xlsx
+++ b/Csharp_ExcelTools/test1.xlsx
@@ -333,7 +333,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.69"/>
@@ -463,7 +463,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
